--- a/model/results/mix1_ggpos_h2pos/v_sce.xlsx
+++ b/model/results/mix1_ggpos_h2pos/v_sce.xlsx
@@ -787,10 +787,10 @@
         <v>1.583461538461538</v>
       </c>
       <c r="D3" t="n">
-        <v>1.535839577472064</v>
+        <v>1.583461538461538</v>
       </c>
       <c r="E3" t="n">
-        <v>1.5215</v>
+        <v>1.583461538461538</v>
       </c>
       <c r="F3" t="n">
         <v>1.5215</v>
@@ -862,10 +862,10 @@
         <v>0.41</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.41</v>
+        <v>0.4099999999998571</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.41</v>
+        <v>0.4099999999994284</v>
       </c>
       <c r="AE3" t="n">
         <v>0.41</v>
@@ -918,10 +918,10 @@
         <v>1.583461538461538</v>
       </c>
       <c r="D4" t="n">
-        <v>1.535839577472064</v>
+        <v>1.583461538461538</v>
       </c>
       <c r="E4" t="n">
-        <v>1.5215</v>
+        <v>1.583461538461538</v>
       </c>
       <c r="F4" t="n">
         <v>1.5215</v>
@@ -993,10 +993,10 @@
         <v>0.41</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.41</v>
+        <v>0.4099999999998571</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.41</v>
+        <v>0.4099999999994284</v>
       </c>
       <c r="AE4" t="n">
         <v>0.41</v>
@@ -1049,10 +1049,10 @@
         <v>1.583461538461538</v>
       </c>
       <c r="D5" t="n">
-        <v>1.535839577472064</v>
+        <v>1.583461538461538</v>
       </c>
       <c r="E5" t="n">
-        <v>1.5215</v>
+        <v>1.583461538461538</v>
       </c>
       <c r="F5" t="n">
         <v>1.5215</v>
@@ -1124,10 +1124,10 @@
         <v>0.41</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.41</v>
+        <v>0.4099999999998571</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.41</v>
+        <v>0.4099999999994284</v>
       </c>
       <c r="AE5" t="n">
         <v>0.41</v>
@@ -1142,10 +1142,10 @@
         <v>0.494</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.494</v>
+        <v>0.4940000000000009</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.494</v>
+        <v>0.4940000000000009</v>
       </c>
       <c r="AK5" t="n">
         <v>0.494</v>
@@ -1154,19 +1154,19 @@
         <v>0.494</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.494</v>
+        <v>0.4940000000000009</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.494</v>
+        <v>0.4940000000000009</v>
       </c>
       <c r="AO5" t="n">
         <v>0.494</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.494</v>
+        <v>0.4940000000000009</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.494</v>
+        <v>0.4940000000000009</v>
       </c>
     </row>
     <row r="6">
@@ -1174,19 +1174,19 @@
         <v>2025</v>
       </c>
       <c r="B6" t="n">
-        <v>0.867461538461538</v>
+        <v>0.8674615384615382</v>
       </c>
       <c r="C6" t="n">
-        <v>1.218171986623455</v>
+        <v>0.952164112983928</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8198395774720642</v>
+        <v>1.583461538461538</v>
       </c>
       <c r="E6" t="n">
+        <v>0.8674615384615383</v>
+      </c>
+      <c r="F6" t="n">
         <v>1.1635</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.5215</v>
       </c>
       <c r="G6" t="n">
         <v>0.16</v>
@@ -1255,10 +1255,10 @@
         <v>0.2378</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.2378</v>
+        <v>0.2377999999999035</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.2378</v>
+        <v>0.2377999999996138</v>
       </c>
       <c r="AE6" t="n">
         <v>0.2378</v>
@@ -1305,19 +1305,19 @@
         <v>2026</v>
       </c>
       <c r="B7" t="n">
-        <v>0.867461538461538</v>
+        <v>0.8674615384615381</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1514615384615333</v>
+        <v>0.1514615384615381</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8198395774720642</v>
+        <v>0.8674615384615384</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4474999999999997</v>
+        <v>0.1514615384615382</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8054999999999963</v>
+        <v>0.4475</v>
       </c>
       <c r="G7" t="n">
         <v>0.16</v>
@@ -1386,10 +1386,10 @@
         <v>0.23575</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.23575</v>
+        <v>0.2357499999999041</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.23575</v>
+        <v>0.2357499999996161</v>
       </c>
       <c r="AE7" t="n">
         <v>0.23575</v>
@@ -1436,19 +1436,19 @@
         <v>2027</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1514615384615379</v>
+        <v>0.8674615384615381</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1514615384615333</v>
+        <v>0.1514615384615381</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8198395774720642</v>
+        <v>0.1514615384615382</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4474999999999997</v>
+        <v>0.1514615384615382</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8054999999999963</v>
+        <v>0.4475</v>
       </c>
       <c r="G8" t="n">
         <v>0.16</v>
@@ -1517,10 +1517,10 @@
         <v>0.2337</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.2337</v>
+        <v>0.2336999999999046</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.2337</v>
+        <v>0.2336999999996183</v>
       </c>
       <c r="AE8" t="n">
         <v>0.2337</v>
@@ -1567,19 +1567,19 @@
         <v>2028</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1514615384615379</v>
+        <v>0.8674615384615381</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1514615384615333</v>
+        <v>0.1514615384615381</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8198395774720642</v>
+        <v>0.1514615384615382</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4474999999999997</v>
+        <v>0.1514615384615382</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8054999999999963</v>
+        <v>0.4475</v>
       </c>
       <c r="G9" t="n">
         <v>0.16</v>
@@ -1648,10 +1648,10 @@
         <v>0.006149999999999989</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.006149999999999989</v>
+        <v>0.006149999999970568</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.006149999999999989</v>
+        <v>0.006149999999882388</v>
       </c>
       <c r="AE9" t="n">
         <v>0.006149999999999989</v>
@@ -1698,19 +1698,19 @@
         <v>2029</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1514615384615379</v>
+        <v>0.151461538461538</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1514615384615333</v>
+        <v>0.1514615384615381</v>
       </c>
       <c r="D10" t="n">
         <v>0.1514615384615382</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4474999999999997</v>
+        <v>0.1514615384615382</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8054999999999963</v>
+        <v>0.4475</v>
       </c>
       <c r="G10" t="n">
         <v>0.16</v>
@@ -1779,10 +1779,10 @@
         <v>0.00410000000000002</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.00410000000000002</v>
+        <v>0.004099999999970599</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.00410000000000002</v>
+        <v>0.00409999999988242</v>
       </c>
       <c r="AE10" t="n">
         <v>0.00410000000000002</v>
@@ -1829,19 +1829,19 @@
         <v>2030</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1514615384615379</v>
+        <v>0.151461538461538</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1514615384615333</v>
+        <v>0.1514615384615381</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1514615384615381</v>
+        <v>0.1514615384615382</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4474999999999997</v>
+        <v>0.1514615384615382</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1514615384615344</v>
+        <v>0.4475</v>
       </c>
       <c r="G11" t="n">
         <v>0.16</v>
@@ -1960,19 +1960,19 @@
         <v>2031</v>
       </c>
       <c r="B12" t="n">
+        <v>0.151461538461538</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.1514615384615381</v>
+      </c>
+      <c r="D12" t="n">
         <v>0.1514615384615379</v>
       </c>
-      <c r="C12" t="n">
-        <v>0.1514615384615332</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.1514615384615383</v>
-      </c>
       <c r="E12" t="n">
+        <v>0.1514615384615382</v>
+      </c>
+      <c r="F12" t="n">
         <v>0.4474999999999998</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.1514615384615344</v>
       </c>
       <c r="G12" t="n">
         <v>0.16</v>
@@ -2091,19 +2091,19 @@
         <v>2032</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1514615384615378</v>
+        <v>0.1514615384615381</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1514615384615334</v>
+        <v>0.1514615384615381</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1514615384615335</v>
+        <v>0.1514615384615382</v>
       </c>
       <c r="E13" t="n">
+        <v>0.1514615384615382</v>
+      </c>
+      <c r="F13" t="n">
         <v>0.4474999999999998</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.1514615384615344</v>
       </c>
       <c r="G13" t="n">
         <v>0.16</v>
@@ -2222,19 +2222,19 @@
         <v>2033</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1514615384615341</v>
+        <v>0.1514615384615381</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1514615384615334</v>
+        <v>0.1514615384615381</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1514615384615325</v>
+        <v>0.1514615384615383</v>
       </c>
       <c r="E14" t="n">
+        <v>0.1514615384615381</v>
+      </c>
+      <c r="F14" t="n">
         <v>0.4474999999999998</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.1514615384615344</v>
       </c>
       <c r="G14" t="n">
         <v>0.16</v>
@@ -2356,16 +2356,16 @@
         <v>0.1514615384615381</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1514615384615332</v>
+        <v>0.1514615384615382</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1514615384615332</v>
+        <v>0.1514615384615381</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4475</v>
+        <v>0.1514615384615381</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1514615384615344</v>
+        <v>0.4474999999999998</v>
       </c>
       <c r="G15" t="n">
         <v>0.16</v>
@@ -2484,19 +2484,19 @@
         <v>2035</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1514615384615385</v>
+        <v>0.1514615384615381</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1514615384615385</v>
+        <v>0.1514615384615269</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1514615384615332</v>
+        <v>0.1514615384615381</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1514615384615332</v>
+        <v>0.151461538461527</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1514615384615381</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0.16</v>
@@ -2615,19 +2615,19 @@
         <v>2036</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1514615384615385</v>
+        <v>0.1514615384615381</v>
       </c>
       <c r="C17" t="n">
+        <v>0.151461538461538</v>
+      </c>
+      <c r="D17" t="n">
         <v>0.1514615384615381</v>
       </c>
-      <c r="D17" t="n">
-        <v>0.1514615384615332</v>
-      </c>
       <c r="E17" t="n">
-        <v>0.1514615384615385</v>
+        <v>0.1514615384615378</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1514615384615381</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0.16</v>
@@ -2746,19 +2746,19 @@
         <v>2037</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1514615384615383</v>
+        <v>0.1514615384615275</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1514615384615384</v>
+        <v>0.1514615384615275</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1514615384615332</v>
+        <v>0.1514615384615275</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1514615384615381</v>
+        <v>0.151461538461527</v>
       </c>
       <c r="F18" t="n">
-        <v>0.151461538461538</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0.16</v>
@@ -2877,19 +2877,19 @@
         <v>2038</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1514615384615386</v>
+        <v>0.1514615384615269</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1514615384615381</v>
+        <v>0.1514615384615269</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1514615384615329</v>
+        <v>0.1514615384615269</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1514615384615381</v>
+        <v>0.1514615384615271</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1514615384615344</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0.16</v>
@@ -3008,19 +3008,19 @@
         <v>2039</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1514615384615386</v>
+        <v>0.1514615384615269</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1514615384615385</v>
+        <v>0.1514615384615258</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1514615384615369</v>
+        <v>0.1514615384615269</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1514615384615381</v>
+        <v>0.1514615384615271</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1514615384615336</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0.16</v>
@@ -3139,19 +3139,19 @@
         <v>2040</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1514615384615386</v>
+        <v>0.1514615384615269</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1514615384615381</v>
+        <v>0.1514615384615269</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1514615384615369</v>
+        <v>0.1514615384615265</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1514615384615381</v>
+        <v>0.1514615384615271</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1514615384615385</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0.16</v>
